--- a/nriss-patch-1/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nriss-patch-1/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/CodeSystem/fr-medication-reconciliation-status</t>
+    <t>https://hl7.fr/ig/fhir/medication/CodeSystem/fr-medication-reconciliation-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -36,13 +36,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrMedicationReconciliationStatus</t>
+    <t>FRMedicationReconciliationStatus</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>code system InterOp'Santé - Statut d'une ligne de traitement d'une FCT</t>
+    <t>code system Interop'Santé - Statut d'une ligne de traitement d'une FCT</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T15:35:36+00:00</t>
+    <t>2026-01-15T08:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>
